--- a/заказы/статистика филиалы/2023/11,23/16,11,23 ЗПФ/дв 16,11,23 млрсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/16,11,23 ЗПФ/дв 16,11,23 млрсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\16,11,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\16,11,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D7E5ED-F4B9-420C-888C-56F268357566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D88D78-D640-403A-90BA-63D2D9098699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$AA$3:$AD$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$AD$36</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>Период: 09.11.2023 - 16.11.2023</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>22,11,23</t>
+  </si>
+  <si>
+    <t>нет на заводе</t>
   </si>
 </sst>
 </file>
@@ -239,7 +242,7 @@
     <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="165" formatCode="0.0_ ;[Red]\-0.0\ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -247,10 +250,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -286,8 +293,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +341,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -470,6 +496,9 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2521,7 +2550,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB6" sqref="AB6:AB36"/>
+      <selection pane="bottomLeft" activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
@@ -2537,12 +2566,14 @@
     <col min="17" max="17" width="13.33203125" style="9" customWidth="1"/>
     <col min="18" max="19" width="5.6640625" style="9" customWidth="1"/>
     <col min="20" max="22" width="8" style="9" customWidth="1"/>
-    <col min="23" max="25" width="10.5" style="9"/>
-    <col min="26" max="26" width="10.5" style="25"/>
-    <col min="27" max="27" width="10.5" style="26"/>
-    <col min="28" max="28" width="10.5" style="9"/>
-    <col min="29" max="29" width="10.5" style="26"/>
-    <col min="30" max="16384" width="10.5" style="9"/>
+    <col min="23" max="23" width="16.6640625" style="9" customWidth="1"/>
+    <col min="24" max="25" width="7.6640625" style="9" customWidth="1"/>
+    <col min="26" max="26" width="7.6640625" style="25" customWidth="1"/>
+    <col min="27" max="27" width="7.6640625" style="26" customWidth="1"/>
+    <col min="28" max="28" width="7.6640625" style="9" customWidth="1"/>
+    <col min="29" max="29" width="7.6640625" style="26" customWidth="1"/>
+    <col min="30" max="30" width="7.6640625" style="9" customWidth="1"/>
+    <col min="31" max="16384" width="10.5" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2735,7 +2766,7 @@
       </c>
       <c r="O5" s="22">
         <f t="shared" si="0"/>
-        <v>20030</v>
+        <v>20770</v>
       </c>
       <c r="P5" s="22">
         <f>SUM(P6:P56)</f>
@@ -2763,7 +2794,7 @@
       </c>
       <c r="Y5" s="22">
         <f>SUM(Y6:Y101)</f>
-        <v>13001.5</v>
+        <v>13661.5</v>
       </c>
       <c r="Z5" s="15" t="s">
         <v>57</v>
@@ -2778,11 +2809,11 @@
       </c>
       <c r="AC5" s="24">
         <f t="shared" ref="AC5:AD5" si="2">SUM(AC6:AC101)</f>
-        <v>0</v>
+        <v>2823</v>
       </c>
       <c r="AD5" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13664.9</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -2863,6 +2894,13 @@
         <f>AA6*Z6*H6</f>
         <v>331.2</v>
       </c>
+      <c r="AC6" s="26">
+        <v>133</v>
+      </c>
+      <c r="AD6" s="9">
+        <f>AC6*Z6*H6</f>
+        <v>478.79999999999995</v>
+      </c>
     </row>
     <row r="7" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
@@ -2943,6 +2981,13 @@
       <c r="AB7" s="9">
         <f t="shared" ref="AB7:AB36" si="8">AA7*Z7*H7</f>
         <v>270</v>
+      </c>
+      <c r="AC7" s="26">
+        <v>113</v>
+      </c>
+      <c r="AD7" s="9">
+        <f t="shared" ref="AD7:AD36" si="9">AC7*Z7*H7</f>
+        <v>406.8</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -2969,7 +3014,9 @@
       <c r="N8" s="31">
         <v>100</v>
       </c>
-      <c r="O8" s="31"/>
+      <c r="O8" s="33">
+        <v>100</v>
+      </c>
       <c r="P8" s="29"/>
       <c r="R8" s="9" t="e">
         <f t="shared" si="5"/>
@@ -2991,13 +3038,16 @@
         <f>VLOOKUP(A8,[1]TDSheet!$A:$M,13,0)</f>
         <v>0</v>
       </c>
+      <c r="W8" s="32" t="s">
+        <v>65</v>
+      </c>
       <c r="X8" s="9">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="Y8" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z8" s="25">
         <f>VLOOKUP(A8,[1]TDSheet!$A:$X,24,0)</f>
@@ -3008,6 +3058,13 @@
       </c>
       <c r="AB8" s="9">
         <f t="shared" si="8"/>
+        <v>99.9</v>
+      </c>
+      <c r="AC8" s="26">
+        <v>27</v>
+      </c>
+      <c r="AD8" s="9">
+        <f t="shared" si="9"/>
         <v>99.9</v>
       </c>
     </row>
@@ -3074,11 +3131,19 @@
         <v>5.5</v>
       </c>
       <c r="AA9" s="26">
-        <f t="shared" ref="AA7:AA36" si="9">N9/Z9</f>
+        <f t="shared" ref="AA9:AA30" si="10">N9/Z9</f>
         <v>0</v>
       </c>
       <c r="AB9" s="9">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="26">
+        <f t="shared" ref="AC9:AC30" si="11">O9/Z9</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="9">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3112,13 +3177,13 @@
       <c r="N10" s="29">
         <v>400</v>
       </c>
-      <c r="O10" s="29">
-        <v>500</v>
+      <c r="O10" s="34">
+        <v>700</v>
       </c>
       <c r="P10" s="29"/>
       <c r="R10" s="9">
         <f t="shared" si="5"/>
-        <v>9.0174278846153832</v>
+        <v>11.020633012820513</v>
       </c>
       <c r="S10" s="9">
         <f t="shared" si="6"/>
@@ -3142,7 +3207,7 @@
       </c>
       <c r="Y10" s="9">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Z10" s="25">
         <f>VLOOKUP(A10,[1]TDSheet!$A:$X,24,0)</f>
@@ -3154,6 +3219,13 @@
       <c r="AB10" s="9">
         <f t="shared" si="8"/>
         <v>399.6</v>
+      </c>
+      <c r="AC10" s="26">
+        <v>189</v>
+      </c>
+      <c r="AD10" s="9">
+        <f t="shared" si="9"/>
+        <v>699.30000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -3180,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
+      <c r="O11" s="34"/>
       <c r="P11" s="29"/>
       <c r="R11" s="9" t="e">
         <f t="shared" si="5"/>
@@ -3211,11 +3283,19 @@
         <v>1.8</v>
       </c>
       <c r="AA11" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB11" s="9">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="9">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3254,7 +3334,7 @@
       <c r="N12" s="29">
         <v>200</v>
       </c>
-      <c r="O12" s="29">
+      <c r="O12" s="34">
         <v>230</v>
       </c>
       <c r="P12" s="29"/>
@@ -3297,6 +3377,13 @@
         <f t="shared" si="8"/>
         <v>49.5</v>
       </c>
+      <c r="AC12" s="26">
+        <v>38</v>
+      </c>
+      <c r="AD12" s="9">
+        <f t="shared" si="9"/>
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
@@ -3328,7 +3415,7 @@
       <c r="N13" s="29">
         <v>1000</v>
       </c>
-      <c r="O13" s="29">
+      <c r="O13" s="34">
         <v>1200</v>
       </c>
       <c r="P13" s="29"/>
@@ -3371,6 +3458,13 @@
         <f t="shared" si="8"/>
         <v>249</v>
       </c>
+      <c r="AC13" s="26">
+        <v>100</v>
+      </c>
+      <c r="AD13" s="9">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
     </row>
     <row r="14" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
@@ -3402,7 +3496,7 @@
         <v>110.4</v>
       </c>
       <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
+      <c r="O14" s="34"/>
       <c r="P14" s="29"/>
       <c r="R14" s="9">
         <f t="shared" si="5"/>
@@ -3437,11 +3531,19 @@
         <v>6</v>
       </c>
       <c r="AA14" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB14" s="9">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="9">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3475,13 +3577,13 @@
       <c r="N15" s="29">
         <v>300</v>
       </c>
-      <c r="O15" s="29">
-        <v>500</v>
+      <c r="O15" s="34">
+        <v>700</v>
       </c>
       <c r="P15" s="29"/>
       <c r="R15" s="9">
         <f t="shared" si="5"/>
-        <v>9.021505376344086</v>
+        <v>11.172043010752688</v>
       </c>
       <c r="S15" s="9">
         <f t="shared" si="6"/>
@@ -3505,7 +3607,7 @@
       </c>
       <c r="Y15" s="9">
         <f t="shared" si="7"/>
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Z15" s="25">
         <f>VLOOKUP(A15,[1]TDSheet!$A:$X,24,0)</f>
@@ -3517,6 +3619,13 @@
       <c r="AB15" s="9">
         <f t="shared" si="8"/>
         <v>228</v>
+      </c>
+      <c r="AC15" s="26">
+        <v>88</v>
+      </c>
+      <c r="AD15" s="9">
+        <f t="shared" si="9"/>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -3597,8 +3706,15 @@
         <f t="shared" si="8"/>
         <v>180</v>
       </c>
+      <c r="AC16" s="26">
+        <v>30</v>
+      </c>
+      <c r="AD16" s="9">
+        <f t="shared" si="9"/>
+        <v>216</v>
+      </c>
     </row>
-    <row r="17" spans="1:28" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>20</v>
       </c>
@@ -3634,12 +3750,12 @@
         <v>1000</v>
       </c>
       <c r="O17" s="29">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="P17" s="29"/>
       <c r="R17" s="9">
         <f t="shared" si="5"/>
-        <v>13.070613409415122</v>
+        <v>13.427246790299574</v>
       </c>
       <c r="S17" s="9">
         <f t="shared" si="6"/>
@@ -3663,7 +3779,7 @@
       </c>
       <c r="Y17" s="9">
         <f t="shared" si="7"/>
-        <v>1350</v>
+        <v>1440</v>
       </c>
       <c r="Z17" s="25">
         <f>VLOOKUP(A17,[1]TDSheet!$A:$X,24,0)</f>
@@ -3676,8 +3792,15 @@
         <f t="shared" si="8"/>
         <v>900</v>
       </c>
+      <c r="AC17" s="26">
+        <v>200</v>
+      </c>
+      <c r="AD17" s="9">
+        <f t="shared" si="9"/>
+        <v>1440</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
@@ -3752,8 +3875,15 @@
         <f t="shared" si="8"/>
         <v>61.92</v>
       </c>
+      <c r="AC18" s="26">
+        <v>9</v>
+      </c>
+      <c r="AD18" s="9">
+        <f t="shared" si="9"/>
+        <v>61.92</v>
+      </c>
     </row>
-    <row r="19" spans="1:28" ht="21.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="21.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>22</v>
       </c>
@@ -3786,12 +3916,12 @@
         <v>1200</v>
       </c>
       <c r="O19" s="29">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="P19" s="29"/>
       <c r="R19" s="9">
         <f t="shared" si="5"/>
-        <v>13.987179487179487</v>
+        <v>14.243589743589743</v>
       </c>
       <c r="S19" s="9">
         <f t="shared" si="6"/>
@@ -3815,7 +3945,7 @@
       </c>
       <c r="Y19" s="9">
         <f t="shared" si="7"/>
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="Z19" s="25">
         <f>VLOOKUP(A19,[1]TDSheet!$A:$X,24,0)</f>
@@ -3828,8 +3958,15 @@
         <f t="shared" si="8"/>
         <v>1200</v>
       </c>
+      <c r="AC19" s="26">
+        <v>360</v>
+      </c>
+      <c r="AD19" s="9">
+        <f t="shared" si="9"/>
+        <v>1800</v>
+      </c>
     </row>
-    <row r="20" spans="1:28" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>23</v>
       </c>
@@ -3867,12 +4004,12 @@
         <v>1200</v>
       </c>
       <c r="O20" s="29">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="P20" s="29"/>
       <c r="R20" s="9">
         <f t="shared" si="5"/>
-        <v>12.185074626865672</v>
+        <v>12.782089552238807</v>
       </c>
       <c r="S20" s="9">
         <f t="shared" si="6"/>
@@ -3896,7 +4033,7 @@
       </c>
       <c r="Y20" s="9">
         <f t="shared" si="7"/>
-        <v>1620</v>
+        <v>1800</v>
       </c>
       <c r="Z20" s="25">
         <f>VLOOKUP(A20,[1]TDSheet!$A:$X,24,0)</f>
@@ -3909,8 +4046,15 @@
         <f t="shared" si="8"/>
         <v>1080</v>
       </c>
+      <c r="AC20" s="26">
+        <v>250</v>
+      </c>
+      <c r="AD20" s="9">
+        <f t="shared" si="9"/>
+        <v>1800</v>
+      </c>
     </row>
-    <row r="21" spans="1:28" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>24</v>
       </c>
@@ -3985,8 +4129,15 @@
         <f t="shared" si="8"/>
         <v>68.8</v>
       </c>
+      <c r="AC21" s="26">
+        <v>6</v>
+      </c>
+      <c r="AD21" s="9">
+        <f t="shared" si="9"/>
+        <v>41.28</v>
+      </c>
     </row>
-    <row r="22" spans="1:28" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>25</v>
       </c>
@@ -4056,15 +4207,22 @@
         <v>8</v>
       </c>
       <c r="AA22" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB22" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AC22" s="26">
+        <v>9</v>
+      </c>
+      <c r="AD22" s="9">
+        <f t="shared" si="9"/>
+        <v>50.4</v>
+      </c>
     </row>
-    <row r="23" spans="1:28" ht="21.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="21.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>26</v>
       </c>
@@ -4142,8 +4300,15 @@
         <f t="shared" si="8"/>
         <v>180</v>
       </c>
+      <c r="AC23" s="26">
+        <v>38</v>
+      </c>
+      <c r="AD23" s="9">
+        <f t="shared" si="9"/>
+        <v>273.60000000000002</v>
+      </c>
     </row>
-    <row r="24" spans="1:28" ht="21.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="21.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>27</v>
       </c>
@@ -4218,8 +4383,15 @@
         <f t="shared" si="8"/>
         <v>108</v>
       </c>
+      <c r="AC24" s="26">
+        <v>20</v>
+      </c>
+      <c r="AD24" s="9">
+        <f t="shared" si="9"/>
+        <v>144</v>
+      </c>
     </row>
-    <row r="25" spans="1:28" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>28</v>
       </c>
@@ -4252,12 +4424,12 @@
         <v>700</v>
       </c>
       <c r="O25" s="29">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="P25" s="29"/>
       <c r="R25" s="9">
         <f t="shared" si="5"/>
-        <v>13.987138263665594</v>
+        <v>14.115755627009646</v>
       </c>
       <c r="S25" s="9">
         <f t="shared" si="6"/>
@@ -4281,7 +4453,7 @@
       </c>
       <c r="Y25" s="9">
         <f t="shared" si="7"/>
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="Z25" s="25">
         <f>VLOOKUP(A25,[1]TDSheet!$A:$X,24,0)</f>
@@ -4294,8 +4466,15 @@
         <f t="shared" si="8"/>
         <v>700</v>
       </c>
+      <c r="AC25" s="26">
+        <v>280</v>
+      </c>
+      <c r="AD25" s="9">
+        <f t="shared" si="9"/>
+        <v>1400</v>
+      </c>
     </row>
-    <row r="26" spans="1:28" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
@@ -4328,12 +4507,12 @@
         <v>950</v>
       </c>
       <c r="O26" s="29">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="P26" s="29"/>
       <c r="R26" s="9">
         <f t="shared" si="5"/>
-        <v>14.040816326530612</v>
+        <v>14.857142857142858</v>
       </c>
       <c r="S26" s="9">
         <f t="shared" si="6"/>
@@ -4357,7 +4536,7 @@
       </c>
       <c r="Y26" s="9">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Z26" s="25">
         <f>VLOOKUP(A26,[1]TDSheet!$A:$X,24,0)</f>
@@ -4370,8 +4549,15 @@
         <f t="shared" si="8"/>
         <v>950</v>
       </c>
+      <c r="AC26" s="26">
+        <v>240</v>
+      </c>
+      <c r="AD26" s="9">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
     </row>
-    <row r="27" spans="1:28" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>30</v>
       </c>
@@ -4434,15 +4620,23 @@
         <v>6</v>
       </c>
       <c r="AA27" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB27" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AC27" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:28" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>31</v>
       </c>
@@ -4497,15 +4691,23 @@
         <v>3</v>
       </c>
       <c r="AA28" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB28" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AC28" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:28" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>32</v>
       </c>
@@ -4578,8 +4780,15 @@
         <f t="shared" si="8"/>
         <v>249</v>
       </c>
+      <c r="AC29" s="26">
+        <v>106</v>
+      </c>
+      <c r="AD29" s="9">
+        <f t="shared" si="9"/>
+        <v>318</v>
+      </c>
     </row>
-    <row r="30" spans="1:28" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>33</v>
       </c>
@@ -4644,15 +4853,23 @@
         <v>1.8</v>
       </c>
       <c r="AA30" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB30" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AC30" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:28" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>34</v>
       </c>
@@ -4730,8 +4947,15 @@
         <f t="shared" si="8"/>
         <v>249</v>
       </c>
+      <c r="AC31" s="26">
+        <v>121</v>
+      </c>
+      <c r="AD31" s="9">
+        <f t="shared" si="9"/>
+        <v>363</v>
+      </c>
     </row>
-    <row r="32" spans="1:28" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>38</v>
       </c>
@@ -4755,7 +4979,9 @@
       <c r="N32" s="31">
         <v>200</v>
       </c>
-      <c r="O32" s="31"/>
+      <c r="O32" s="33">
+        <v>100</v>
+      </c>
       <c r="P32" s="29"/>
       <c r="R32" s="9" t="e">
         <f t="shared" si="5"/>
@@ -4777,13 +5003,16 @@
         <f>VLOOKUP(A32,[1]TDSheet!$A:$M,13,0)</f>
         <v>0</v>
       </c>
+      <c r="W32" s="32" t="s">
+        <v>65</v>
+      </c>
       <c r="X32" s="9">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="Y32" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z32" s="25">
         <f>VLOOKUP(A32,[1]TDSheet!$A:$X,24,0)</f>
@@ -4796,8 +5025,15 @@
         <f t="shared" si="8"/>
         <v>199.8</v>
       </c>
+      <c r="AC32" s="26">
+        <v>37</v>
+      </c>
+      <c r="AD32" s="9">
+        <f t="shared" si="9"/>
+        <v>99.9</v>
+      </c>
     </row>
-    <row r="33" spans="1:28" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>35</v>
       </c>
@@ -4875,8 +5111,15 @@
         <f t="shared" si="8"/>
         <v>249</v>
       </c>
+      <c r="AC33" s="26">
+        <v>129</v>
+      </c>
+      <c r="AD33" s="9">
+        <f t="shared" si="9"/>
+        <v>387</v>
+      </c>
     </row>
-    <row r="34" spans="1:28" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>36</v>
       </c>
@@ -4906,13 +5149,13 @@
       <c r="N34" s="31">
         <v>1200</v>
       </c>
-      <c r="O34" s="31">
-        <v>2000</v>
+      <c r="O34" s="33">
+        <v>1500</v>
       </c>
       <c r="P34" s="29"/>
       <c r="R34" s="9">
         <f t="shared" si="5"/>
-        <v>7.3505976095617527</v>
+        <v>6.3545816733067726</v>
       </c>
       <c r="S34" s="9">
         <f t="shared" si="6"/>
@@ -4930,13 +5173,16 @@
         <f>VLOOKUP(A34,[1]TDSheet!$A:$M,13,0)</f>
         <v>20</v>
       </c>
+      <c r="W34" s="32" t="s">
+        <v>65</v>
+      </c>
       <c r="X34" s="9">
         <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="Y34" s="9">
         <f t="shared" si="7"/>
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="Z34" s="25">
         <f>VLOOKUP(A34,[1]TDSheet!$A:$X,24,0)</f>
@@ -4949,8 +5195,15 @@
         <f t="shared" si="8"/>
         <v>1200</v>
       </c>
+      <c r="AC34" s="26">
+        <v>300</v>
+      </c>
+      <c r="AD34" s="9">
+        <f t="shared" si="9"/>
+        <v>1500</v>
+      </c>
     </row>
-    <row r="35" spans="1:28" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
         <v>8</v>
       </c>
@@ -5021,8 +5274,15 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AC35" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:28" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
         <v>9</v>
       </c>
@@ -5091,9 +5351,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AC36" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="AA3:AD3" xr:uid="{B6A4B855-2D1D-4BE2-BAC1-A6057B42AD15}"/>
+  <autoFilter ref="A3:AD36" xr:uid="{B936422E-357E-4E5E-8458-939D4DD0556A}"/>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
